--- a/InvoiceProcessing-RPA/testInvoices/Momentum/invoice.xlsx
+++ b/InvoiceProcessing-RPA/testInvoices/Momentum/invoice.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\github\invoiceProcessingPAM_DM_RPA\InvoiceApproval\InvoiceProcessing-RPA\testInvoices\Momentum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D587F41-FE8E-4678-9D01-9DAF179B83D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D052F2AA-3610-4B0A-B830-FAF1A41FD8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60480" yWindow="2400" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="4905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Speciality Drinks</t>
   </si>
@@ -79,13 +79,176 @@
   </si>
   <si>
     <t>Checked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GINIBOM2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bombay Sapphire London Dry Gin I 40% I 70CI”
+</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>17.17</t>
+  </si>
+  <si>
+    <t>618.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VODKA/GRE1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey Goose Vodka I 40% I 70cl‘
+</t>
+  </si>
+  <si>
+    <t>29.90</t>
+  </si>
+  <si>
+    <t>1,076.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRBONNV003
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;G Woodford Reserve I 43.2% I 70cl
+</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>27.66</t>
+  </si>
+  <si>
+    <t>497.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUM/BAC1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacardi Carta Blanca I 37.5% I 70c|
+</t>
+  </si>
+  <si>
+    <t>14.75</t>
+  </si>
+  <si>
+    <t>531.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERMOIMAR1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martini Bianco I 15% I 75cl
+</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8.31</t>
+  </si>
+  <si>
+    <t>99.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLEND/JOH1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnnie Walker Black Label 12yo I 40% I 70cl
+</t>
+  </si>
+  <si>
+    <t>22.15</t>
+  </si>
+  <si>
+    <t>797.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIQ/COI1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cointreau I 40% I 706i
+</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>17.66</t>
+  </si>
+  <si>
+    <t>105.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LlQ/BRI/CAS1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Briottet Maison Edmond Creme de Cassis I 20% I 70cl I
+</t>
+  </si>
+  <si>
+    <t>16.18</t>
+  </si>
+  <si>
+    <t>97.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIQIBRIICHA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Briottet Maison Edmond Creme de Chataigne I 18% I 70clI
+</t>
+  </si>
+  <si>
+    <t>19.13</t>
+  </si>
+  <si>
+    <t>114.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUM/KRA1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kraken Black Spiced I 40% I 70cl
+</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>19.95</t>
+  </si>
+  <si>
+    <t>39.90</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">4 X CHARTREUSE GREEN 7OCL - NO ETA
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,36 +324,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,65 +638,65 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="33">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" ht="20.25" s="1" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" ht="20.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" ht="23.25" customHeight="1" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -553,177 +716,288 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3" t="b">
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="e">
         <f>VALUE(E6)=(C6*D6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3" t="b">
-        <f t="shared" ref="F7:F22" si="0">VALUE(E7)=(C7*D7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3" t="b">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="e">
+        <f ref="F7:F16" t="shared" si="0">VALUE(E7)=(C7*D7)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3" t="b">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3" t="b">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3" t="b">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3" t="b">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3" t="b">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3" t="b">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3" t="b">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3" t="b">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>